--- a/medicine/Médecine vétérinaire/Liste_des_vétérinaires_célèbres/Liste_des_vétérinaires_célèbres.xlsx
+++ b/medicine/Médecine vétérinaire/Liste_des_vétérinaires_célèbres/Liste_des_vétérinaires_célèbres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+          <t>Liste_des_vétérinaires_célèbres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vétérinaires et les chirurgiens vétérinaires sont des professionnels de la santé qui opèrent exclusivement sur les animaux. Voici une liste de vétérinaires notables, réels et fictifs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+          <t>Liste_des_vétérinaires_célèbres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-Wayne Allard (né en 1943) - sénateur américain (1997–2009)[1]
-Maurice Allen (né en 1937) - pathologiste vétérinaire[2]
-B
-Chris Back (né en 1950) - sénateur australien (2009-2017)
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wayne Allard (né en 1943) - sénateur américain (1997–2009)
+Maurice Allen (né en 1937) - pathologiste vétérinaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chris Back (né en 1950) - sénateur australien (2009-2017)
 Bernhard Lauritz Frederik Bang (1848–1932) - vétérinaire danois qui a découvert Brucella abortus
 Denis Barberet (1714-1770) - bibliographe et auteur français
 Harold William Bennetts (1898–1970) - Australien connu pour ses recherches sur le bétail et les effets toxiques des plantes australiennes indigènes
@@ -528,9 +579,43 @@
 Alfred Boquet (1879-1947) - vétérinaire français, connu pour son travail à l'Institut Pasteur de Paris
 Claude Bourgelat (1712-1779) - fondateur de l'école vétérinaire française du XVIIIe siècle
 Anton Johnson Brandt (1893–1951) - professeur d'anatomie pathologique à l'École norvégienne des sciences vétérinaires
-Chris Brown (né en 1978) - connu pour la série télévisée australienne Bondi Vet
-C
-Nelson R. Çabej (né en 1939) - biologiste de l'évolution et auteur albanais
+Chris Brown (né en 1978) - connu pour la série télévisée australienne Bondi Vet</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nelson R. Çabej (né en 1939) - biologiste de l'évolution et auteur albanais
 Charles J Coottes Campbell (1894-2001), vétérinaire équin britannique/du Commonwealth
 Louis J. Camuti (1893–1981) - premier vétérinaire américain pour chats
 Philibert Chabert (1737–1814) - agronome français qui a écrit sur le premier traité sur le contrôle de l'anthrax
@@ -540,76 +625,518 @@
 Matthew Clarke (né en 1973) - ancien footballeur professionnel australien
 Ken Coghill (né en 1944) - ancien homme politique australien
 Robert Cook - vétérinaire équin britannique
-Robin Coombs (1921–2006) - immunologiste britannique, co-découvreur du test de Coombs[3]
+Robin Coombs (1921–2006) - immunologiste britannique, co-découvreur du test de Coombs
 Harry Cooper (né en 1943) - personnalité de la télévision australienne
-Miguel Cordero del Campillo (1925–2020) - parasitologue espagnol
-D
-Morné de la Rey (né en 1970) - vétérinaire sud-africain qui a été la première personne en Afrique à cloner un animal
-Darlene Dixon - vétérinaire américaine et pathologiste toxicologique[4]
+Miguel Cordero del Campillo (1925–2020) - parasitologue espagnol</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Morné de la Rey (né en 1970) - vétérinaire sud-africain qui a été la première personne en Afrique à cloner un animal
+Darlene Dixon - vétérinaire américaine et pathologiste toxicologique
 Sydney Dodd (1874–1926) - chirurgien vétérinaire britannique qui fut le premier maître de conférences en bactériologie vétérinaire à l'Université de Sydney
 Peter C. Doherty (né en 1940) - Chirurgien vétérinaire australien et chercheur co-récipiendaire du prix Nobel de physiologie ou médecine en 1996
 Mick Doyle (1941–2004) - joueur de rugby irlandais
 Petrus Johann du Toit (1888–1967) - vétérinaire sud-africain
-John Boyd Dunlop (1840–1921) - inventeur écossais du pneu
-E
-Henrik Edland (1905-1984) - professeur d'anatomie à l'École norvégienne des sciences vétérinaires
-John Ensign (né en 1958) - sénateur américain (2001-2011)[5]
-Raphaël Élizé, (1891-1945), un des premiers maires métis ou noir d'une commune de France métropolitaine.
-F
-Martin J. Fettman (né en 1956) - astronaute américain et pathologiste vétérinaire
+John Boyd Dunlop (1840–1921) - inventeur écossais du pneu</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Henrik Edland (1905-1984) - professeur d'anatomie à l'École norvégienne des sciences vétérinaires
+John Ensign (né en 1958) - sénateur américain (2001-2011)
+Raphaël Élizé, (1891-1945), un des premiers maires métis ou noir d'une commune de France métropolitaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Martin J. Fettman (né en 1956) - astronaute américain et pathologiste vétérinaire
 Kevin Fitzgerald (né en 1951) - vétérinaire documentaire télévisé américain
 Bruce Fogle (né en 1944) - vétérinaire canadien
-Birger Furugård (1887-1961) - homme politique suédois
-G
-Doug Galt - ancien homme politique canadien
+Birger Furugård (1887-1961) - homme politique suédois</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Doug Galt - ancien homme politique canadien
 Pierre-Victor Galtier (1846-1908) - vétérinaire français, remarquable pour ses recherches sur la rage
 Hugh Gordon (1909–2002) - parasitologue australien
-John Russell Greig (1889-1963) - vétérinaire écossais, remarquable pour ses recherches sur la fièvre de lait[6]
-Camille Guérin (1872-1961) - a développé un vaccin contre la tuberculose
-H
-James Hallen (1829-1901) - vétérinaire britannique qui a été surintendant général de l'élevage de chevaux en Inde[7]
+John Russell Greig (1889-1963) - vétérinaire écossais, remarquable pour ses recherches sur la fièvre de lait
+Camille Guérin (1872-1961) - a développé un vaccin contre la tuberculose</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>James Hallen (1829-1901) - vétérinaire britannique qui a été surintendant général de l'élevage de chevaux en Inde
 Greg J. Harrison - vétérinaire aviaire
 Susanne Hart (1927– 2010) - environnementaliste sud-africaine
 Antonie Marinus Harthoorn (1923–2012) - défenseur de l'environnement qui a travaillé en Afrique
 Herbert Haupt (né en 1947) - homme politique autrichien
-James Herriot (1916–1995) - nom de plume de James Alfred Wight, auteur de livres sur les animaux[8]
+James Herriot (1916–1995) - nom de plume de James Alfred Wight, auteur de livres sur les animaux
 Vanessa M. Hirsch - pathologiste vétérinaire et virologue canado-américaine
 Thomas William Hogarth (1901–1999) - vétérinaire écossais-australien, écrivain sur les chiens
 John Holt (1931–2013) - vétérinaire australien et tireur sportif
-William Hunting (1846–1913) - fondateur de The Veterinary Record[9],[10]
-J
-Dawda Jawara (1924-2019) - premier président de la Gambie
-Joan O. Joshua (1912–1993)[11]
-L
-Amy K. LeBlanc - oncologue vétérinaire américaine
+William Hunting (1846–1913) - fondateur de The Veterinary Record,</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dawda Jawara (1924-2019) - premier président de la Gambie
+Joan O. Joshua (1912–1993)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Amy K. LeBlanc - oncologue vétérinaire américaine
 Richard M. Linnehan (né en 1957) - astronaute américain
 Buster Lloyd-Jones (1914-1980) - vétérinaire britannique
-Gérard Larcher - président du sénat Français
-M
-Svend Lomholt (1888–1949) - vétérinaire danois
+Gérard Larcher - président du sénat Français</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Svend Lomholt (1888–1949) - vétérinaire danois
 Zoltán Magyar (né en 1953) - gymnaste hongrois; médaillé d'or au cheval d'arçons masculin aux Jeux olympiques d'été de 1976 et 1980
 Miguel Ángel J. Márquez Ruiz - vétérinaire mexicain
 Tracey McNamara - pathologiste vétérinaire au zoo du Bronx qui a joué un rôle central dans l'identification de la première épidémie de virus du Nil occidental aux États-Unis
 Keith Meldrum (né en 1937) - vétérinaire en chef du Royaume-Uni (1988–1997)
-Veranus Alva Moore (1859–1931) - Doyen du Collège de médecine vétérinaire de l'Université Cornell (1908–1929)[12]
-Suzanne Morrow (1930–2006) - Patineuse artistique canadienne qui a prêté le serment officiel aux Jeux olympiques d'hiver de 1988
-N
-Denis Napthine (né en 1952) - homme politique australien
-Rich Nye (né en 1944) - lanceur de baseball professionnel américain devenu animal exotique / vétérinaire aviaire[13]
-O
-Peter Ostrum (né en 1957) - enfant acteur qui était Charlie Bucket dans le film Willy Wonka et la chocolaterie de 1971
-P
-Frederick Douglass Patterson (1901-1988) - récipiendaire de la médaille présidentielle de la liberté en 1987, la plus haute distinction civile aux États-Unis
+Veranus Alva Moore (1859–1931) - Doyen du Collège de médecine vétérinaire de l'Université Cornell (1908–1929)
+Suzanne Morrow (1930–2006) - Patineuse artistique canadienne qui a prêté le serment officiel aux Jeux olympiques d'hiver de 1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Denis Napthine (né en 1952) - homme politique australien
+Rich Nye (né en 1944) - lanceur de baseball professionnel américain devenu animal exotique / vétérinaire aviaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Peter Ostrum (né en 1957) - enfant acteur qui était Charlie Bucket dans le film Willy Wonka et la chocolaterie de 1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Frederick Douglass Patterson (1901-1988) - récipiendaire de la médaille présidentielle de la liberté en 1987, la plus haute distinction civile aux États-Unis
 Sonny Perdue (né en 1946) - homme politique américain, ancien gouverneur de Géorgie
 Brian Perry (né en 1946) - épidémiologiste
-Walter Plowright (1923–2010) - scientifique vétérinaire anglais qui a travaillé pour éradiquer la peste bovine
-R
-Nicky Rackard (1922-1976) - lanceur irlandais
-Carl Gottlob Rafn (1769–1808) - scientifique multidisciplinaire danois[14]
+Walter Plowright (1923–2010) - scientifique vétérinaire anglais qui a travaillé pour éradiquer la peste bovine</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nicky Rackard (1922-1976) - lanceur irlandais
+Carl Gottlob Rafn (1769–1808) - scientifique multidisciplinaire danois
 Robert L. Rooks - vétérinaire américain
-John Gunion Rutherford (1857-1923) - homme politique canadien[15]
-S
-Suzanne Saueressig (1924-2013) - première femme vétérinaire en exercice dans le Missouri
+John Gunion Rutherford (1857-1923) - homme politique canadien</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Suzanne Saueressig (1924-2013) - première femme vétérinaire en exercice dans le Missouri
 Elmo Shropshire (né en 1936) - mieux connu comme le chanteur de la nouvelle chanson de Noël " Grandma Got Run Over By a Reindeer "
 Brian Sinclair (1915-1988) - surtout connu pour son association avec James Alfred Wight
 Donald Sinclair (1911-1995) - connu comme partenaire de James Alfred Wight
@@ -617,48 +1144,220 @@
 Harry Spira - Pionnier australien des technologies d'élevage canin
 Leonid Stadnyk (1970-2014) - vétérinaire ukrainien réputé pour sa taille
 Harry Steele-Bodger (1896–1952) - vétérinaire britannique
-Michael G. Strain (1959–) - vétérinaire américain qui est le commissaire sortant de l'agriculture et des forêts de la Louisiane
-T
-Arnold Theiler (1867–1936) - a décrit la maladie du cheval connue sous le nom de maladie de Theiler[16]
+Michael G. Strain (1959–) - vétérinaire américain qui est le commissaire sortant de l'agriculture et des forêts de la Louisiane</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Arnold Theiler (1867–1936) - a décrit la maladie du cheval connue sous le nom de maladie de Theiler
 James Thomson (né en 1958) - biologiste du développement américain qui a dérivé la première lignée de cellules souches embryonnaires humaines en 1998
-Simon Fraser Tolmie (1867-1937) - homme politique canadien[17]
-Debbye Turner (née en 1965) - Miss America 1990, vétérinaire résidente pour The Early Show de CBS[18]
-V
-Erik Viborg (1759–1822) - vétérinaire et botaniste danois[19]
-W
-Hugh Wirth (1939–2018) - défenseur australien du bien-être des animaux auprès de RSPCA Australia, radiodiffuseur[20]
-Y
-Sophia Yin (1966-2014) - comportementaliste animale américaine et pionnière de la formation de renforcement positif pour les animaux de compagnie[21]
-Z
-Robert Zammit - vétérinaire de la télévision australienne</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Simon Fraser Tolmie (1867-1937) - homme politique canadien
+Debbye Turner (née en 1965) - Miss America 1990, vétérinaire résidente pour The Early Show de CBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Erik Viborg (1759–1822) - vétérinaire et botaniste danois</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Hugh Wirth (1939–2018) - défenseur australien du bien-être des animaux auprès de RSPCA Australia, radiodiffuseur</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sophia Yin (1966-2014) - comportementaliste animale américaine et pionnière de la formation de renforcement positif pour les animaux de compagnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Vétérinaires de la vie réelle</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Robert Zammit - vétérinaire de la télévision australienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_vétérinaires_célèbres</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_v%C3%A9t%C3%A9rinaires_c%C3%A9l%C3%A8bres</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Vétérinaires fictifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Extrait du feuilleton britannique Emmerdale :
 Rhona Goskirk
